--- a/data/trans_bre/P38B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Provincia-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P38B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,17; 11,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 4,71</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 18,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 4,98</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 10,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 10,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 14,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 12,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,66; 12,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 19,47</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 9,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 7,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 7,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 11,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 8,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 8,92</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 10,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 4,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,5; 7,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 14,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 4,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 9,14</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 14,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,29; 17,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 12,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 18,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,43; 24,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 16,38</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 6,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 12,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 4,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 7,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 15,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 4,95</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,4%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,14; 9,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 12,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 14,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 11,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 19,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,58; 17,62</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,02%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 9,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 7,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 23,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 13,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 9,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,96; 52,23</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,96; 7,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 7,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 11,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 9,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 9,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,04; 15,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Provincia-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 11,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,71</t>
+          <t>-0,79; 5,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 13,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,98</t>
+          <t>-0,77; 5,52</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>11,9%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 14,03</t>
+          <t>2,35; 15,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 19,47</t>
+          <t>3,06; 22,67</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,97</t>
+          <t>0,39; 8,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,92</t>
+          <t>0,39; 9,49</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-9,63%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,91</t>
+          <t>1,71; 13,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 7,73</t>
+          <t>-44,13; 7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 14,12</t>
+          <t>2,12; 17,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 9,14</t>
+          <t>-47,24; 8,48</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,67%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 12,69</t>
+          <t>-0,25; 12,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 16,38</t>
+          <t>-0,2; 16,94</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,63</t>
+          <t>-1,94; 4,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,95</t>
+          <t>-1,95; 5,26</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 14,0</t>
+          <t>6,39; 17,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 17,62</t>
+          <t>7,43; 22,91</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>25,16</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>55,53%</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,01; 23,56</t>
+          <t>7,63; 52,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 52,23</t>
+          <t>12,22; 281,3</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,56</t>
+          <t>4,24; 28,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,04; 15,29</t>
+          <t>5,25; 46,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 11,08</t>
+          <t>-0,05; 11,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 11,91</t>
+          <t>-3,43; 12,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,1</t>
+          <t>-0,46; 5,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 13,65</t>
+          <t>-0,0; 14,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 18,06</t>
+          <t>-4,56; 19,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,52</t>
+          <t>-0,45; 5,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 10,45</t>
+          <t>2,74; 9,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,42</t>
+          <t>2,9; 9,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 15,8</t>
+          <t>1,87; 15,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 12,42</t>
+          <t>3,04; 11,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,23</t>
+          <t>3,25; 11,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 22,67</t>
+          <t>2,59; 22,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,44</t>
+          <t>-0,82; 9,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,27</t>
+          <t>-1,28; 7,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 8,58</t>
+          <t>0,57; 8,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 11,73</t>
+          <t>-0,9; 11,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 8,46</t>
+          <t>-1,38; 8,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 9,49</t>
+          <t>0,64; 9,21</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 13,23</t>
+          <t>2,0; 13,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,14</t>
+          <t>-5,01; 3,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 7,31</t>
+          <t>-38,15; 7,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 17,91</t>
+          <t>2,7; 18,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,65</t>
+          <t>-5,44; 4,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 8,48</t>
+          <t>-41,66; 8,77</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,54</t>
+          <t>2,84; 15,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 17,61</t>
+          <t>4,81; 18,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 12,89</t>
+          <t>-0,63; 13,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 18,41</t>
+          <t>3,31; 19,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 24,4</t>
+          <t>5,91; 25,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 16,94</t>
+          <t>-0,74; 18,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,47</t>
+          <t>-5,12; 6,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 12,06</t>
+          <t>-0,71; 12,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,91</t>
+          <t>-1,47; 5,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 7,75</t>
+          <t>-5,64; 7,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 15,93</t>
+          <t>-0,9; 16,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,26</t>
+          <t>-1,5; 6,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,92</t>
+          <t>2,98; 10,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,08</t>
+          <t>2,03; 12,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 17,68</t>
+          <t>6,36; 17,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,86</t>
+          <t>3,42; 12,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 19,2</t>
+          <t>2,85; 20,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 22,91</t>
+          <t>7,4; 22,88</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,9</t>
+          <t>1,17; 9,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,92</t>
+          <t>2,43; 7,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,63; 52,16</t>
+          <t>7,52; 50,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 13,8</t>
+          <t>1,49; 13,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,0</t>
+          <t>2,69; 9,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,22; 281,3</t>
+          <t>12,09; 249,45</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,41</t>
+          <t>3,96; 7,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,33</t>
+          <t>3,81; 7,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 28,24</t>
+          <t>4,37; 31,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,2</t>
+          <t>4,75; 9,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,03</t>
+          <t>4,59; 9,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,25; 46,99</t>
+          <t>5,38; 54,37</t>
         </is>
       </c>
     </row>
